--- a/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VisualStudio\CheironSistemi\Humanitas\MedRip\CheironSistemi.MedRip.Web\Public\FSE20\Temp\FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VisualStudio\CheironSistemi\Humanitas\MedRip_Varie\Progetti\SISS3_FSE20\Accreditamento\A1#111#CHEIRONXX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="287">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -776,369 +762,376 @@
     <t>471, 472</t>
   </si>
   <si>
-    <t>2025-04-29T14:09:03Z</t>
-  </si>
-  <si>
-    <t>3ae32c40be4aea04b1538a632c17212d</t>
+    <t>subject_application_id: Art-It</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: Cheiron Sistemi srl</t>
+  </si>
+  <si>
+    <t>subject_application_version: 3.5.0</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:29:02Z</t>
+  </si>
+  <si>
+    <t>d82fb8f592fab4b9426073c454bd32de</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2025-04-29T14:09:42Z</t>
-  </si>
-  <si>
-    <t>21be88ea6c44b37719d333284b7e0129</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:10:01Z</t>
-  </si>
-  <si>
-    <t>b623f5ab5d9b26899afaff171411d7b1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.2902d7fd73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:10:26Z</t>
-  </si>
-  <si>
-    <t>96fde8621d84d093f1ee0ca179441853</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d9352710ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:10:45Z</t>
-  </si>
-  <si>
-    <t>7eda0beb8e6faf4823ee4693f343da06</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.371a22cfc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:11:04Z</t>
-  </si>
-  <si>
-    <t>9c7861958612561a7a87d95158760406</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d663bd13ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:11:30Z</t>
-  </si>
-  <si>
-    <t>d2fa291aeda86bc92772de9cd0013951</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d5299b75a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:11:56Z</t>
-  </si>
-  <si>
-    <t>6ab56bece9a23945ac21a1ffa9e5e6f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.8e57d301e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:12:19Z</t>
-  </si>
-  <si>
-    <t>9a70af2a018af543d59b3912d8d51793</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.4b2d0bf421^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:13:25Z</t>
-  </si>
-  <si>
-    <t>d7d8a3f2331a47b898e5be2236ec8c72</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.bd3e2fedb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:13:45Z</t>
-  </si>
-  <si>
-    <t>0664df8c13ff3545574d911b8e7a8f0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1a2094f5e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:14:09Z</t>
-  </si>
-  <si>
-    <t>371536215b2a0a58bfcc129a63b8ec13</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.c0a042c5b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:14:30Z</t>
-  </si>
-  <si>
-    <t>6a6438f2a8442da5572ffbf027872282</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.cf65d67974^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:14:51Z</t>
-  </si>
-  <si>
-    <t>f924c676a7917d7a9d7a47da33e88072</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.4d46aa324f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:15:12Z</t>
-  </si>
-  <si>
-    <t>1562a5d83774cf9c05db7fbbdd98216c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.18e6731890^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:15:32Z</t>
-  </si>
-  <si>
-    <t>f55b09d8bbe945773c793a14b71a5321</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.7acaf44acb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:15:52Z</t>
-  </si>
-  <si>
-    <t>553f92692c783f28024ae5fc7affce8b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.51b8068816^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:16:16Z</t>
-  </si>
-  <si>
-    <t>f3a398aab6ff1da44ca4819daefc4d43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.4dc4238173^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:16:36Z</t>
-  </si>
-  <si>
-    <t>3aa78487c3be58b89990e4c183f6ed6b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d7ea25e9fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:16:59Z</t>
-  </si>
-  <si>
-    <t>94457d3601e80f6c0d67229c7ebad59b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.ae2db000a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:17:29Z</t>
-  </si>
-  <si>
-    <t>07a8d81a6bc23e881edf7578cc369c56</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.ed4a365ea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:17:54Z</t>
-  </si>
-  <si>
-    <t>f0e9efe2e2ee950d238b453a5f62231d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.04ee526901^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-07T08:57:53Z</t>
+  </si>
+  <si>
+    <t>11341640429822709b0c75334ecc85c3</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:30:57Z</t>
+  </si>
+  <si>
+    <t>02cf7e9d90ba88bfba3c158ad4151c47</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:00:09Z</t>
+  </si>
+  <si>
+    <t>46165aec2d1dbce2a044217e871ea4ce</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:32:16Z</t>
+  </si>
+  <si>
+    <t>dafbe4e73b5a6c20db6330084f85f327</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f82624eb44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:32:39Z</t>
+  </si>
+  <si>
+    <t>597082506e70c6f561d88a5237d4babc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.1529fbff5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:33:01Z</t>
+  </si>
+  <si>
+    <t>ab9191d7aadc8575e2b1fe35295408e0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.4287909963^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:33:25Z</t>
+  </si>
+  <si>
+    <t>3443b03e240f36dd0ce5d64121e7fe6d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8666a150dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:33:47Z</t>
+  </si>
+  <si>
+    <t>774b924781f24a56efe7d01aa4b970c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.4ea4d8563e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:35:24Z</t>
+  </si>
+  <si>
+    <t>8b46afc8aacf82f9207c4aa589e9aff8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.34b74df467^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:35:55Z</t>
+  </si>
+  <si>
+    <t>d4fc8b0c31967f65e4f611da99c1c643</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.589b3735a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:36:18Z</t>
+  </si>
+  <si>
+    <t>3c2c2c038b9c8cf7bf866ac65115732a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.d243e378a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:37:14Z</t>
+  </si>
+  <si>
+    <t>1c8adb05cb1729d28ce6b00f8b67213e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.26cfb4ba12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:37:47Z</t>
+  </si>
+  <si>
+    <t>041bf1b6301cc291aac4e5f9762de642</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.a8540c6eca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:00:27Z</t>
+  </si>
+  <si>
+    <t>9055e81143ee4c0ebf431af65f7f913f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.6d076d5515^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:00:52Z</t>
+  </si>
+  <si>
+    <t>8366129158ab2ba332b118802fc6d907</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.225c4caf03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:01:25Z</t>
+  </si>
+  <si>
+    <t>dbc65fa8fb09dfd2b1164321adf05002</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.b1b1fdffaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:02:18Z</t>
+  </si>
+  <si>
+    <t>94698d70ab1f05f170ecdd39c6cd9abc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d1edcce594^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:03:19Z</t>
+  </si>
+  <si>
+    <t>ed6583bbfc005dfe5579adadc7839f9a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.e123945ed0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:03:56Z</t>
+  </si>
+  <si>
+    <t>9ced0eacb4e455278c392ba0a4848cc4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.caaebcc34b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:04:24Z</t>
+  </si>
+  <si>
+    <t>feb300c505ed4576d1e794cd421da732</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1a9c7fad1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:04:48Z</t>
+  </si>
+  <si>
+    <t>8d993ca714846374cc6251be20c011fd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9c3ea0dcac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:05:17Z</t>
+  </si>
+  <si>
+    <t>4534f05bfbc96355dde5c96553b3b7ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.239f3f7b13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:09:18Z</t>
+  </si>
+  <si>
+    <t>b0d869ab9ef802966adcea55af4f0d9f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.7115918d5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:17:13Z</t>
+  </si>
+  <si>
+    <t>798953430fc6e3a9a53cd5bac00d92e2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.8963da0096^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:18:19Z</t>
+  </si>
+  <si>
+    <t>54d728137202d95bd556e0db73acc2f4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.8eaba604ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:18:46Z</t>
+  </si>
+  <si>
+    <t>65fbd4a2291f8d7b407adceca151f875</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.3ebcf59490^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:19:11Z</t>
+  </si>
+  <si>
+    <t>a6b6e10d6439c02a0885f8fc1478575b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.547274ccd9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:19:56Z</t>
+  </si>
+  <si>
+    <t>86c12707844e05af32477340ba8fae27</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.748bea2023^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:20:51Z</t>
+  </si>
+  <si>
+    <t>f53f481b43ebd1b1b26d1e45978c2220</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.923a189ef8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:23:13Z</t>
+  </si>
+  <si>
+    <t>7ad94f80455778168d1ebdf708669bb0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9862df3d15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:24:00Z</t>
+  </si>
+  <si>
+    <t>967705025b50015c30ccdeca99ec6344</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.5a092e2749^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:38:13Z</t>
+  </si>
+  <si>
+    <t>3175f01c28e97951e756d0964876c9c3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f4af1be237^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:39:12Z</t>
+  </si>
+  <si>
+    <t>5a7e9c48adc8c35fd9506c2619d59aee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.e7a007b3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:24:48Z</t>
+  </si>
+  <si>
+    <t>13f072493923365a3635d1b495b04fbf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.276a03200f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:39:53Z</t>
+  </si>
+  <si>
+    <t>70bf1fc9879f0a096db7994ea60451ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.5e55777135^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T09:25:19Z</t>
+  </si>
+  <si>
+    <t>feea7c1cdfb163578c4a0d67c6392bdc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1422568df4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore di connessione. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t>Revisione dell'installazione cliente per correggere l'errore di configurazione.</t>
   </si>
   <si>
     <t>Timeout di connesione. Riprovare piu' tardi</t>
   </si>
   <si>
-    <t>Errore di connessione. Contattare l'assistenza.</t>
+    <t>Viene chiesto di ritentare</t>
   </si>
   <si>
     <t>Viene mostrato l'errore generato dalla validazione.</t>
   </si>
   <si>
-    <t>Revisione dell'installazione cliente per correggere l'errore di configurazione.</t>
-  </si>
-  <si>
-    <t>Viene chiesto di ritentare</t>
-  </si>
-  <si>
     <t>Modifica dei dati non corretti da parte del medico e re-invio in validazione contestualmente.</t>
   </si>
   <si>
-    <t>subject_application_vendor: Cheiron Sistemi srl</t>
-  </si>
-  <si>
-    <t>subject_application_id: Art-It</t>
-  </si>
-  <si>
-    <t>subject_application_version: 3.5.0</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:19:33Z</t>
-  </si>
-  <si>
-    <t>1e3ae04d218c5270b8b6f7426d004ff7</t>
-  </si>
-  <si>
-    <t>2025-04-29T14:19:59Z</t>
-  </si>
-  <si>
-    <t>32137111164e8f696b6ee5b33d498a69</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:23:40Z</t>
-  </si>
-  <si>
-    <t>7e7a3c2227ccbc11b4cb90f97635d4ed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.3a0d3b5ab0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:24:09Z</t>
-  </si>
-  <si>
-    <t>37663bc52b243705975052f72e3dc853</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.d3e932a610^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:24:36Z</t>
-  </si>
-  <si>
-    <t>64366949d4ac4596ce872bebb3383794</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.04adacca8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:25:12Z</t>
-  </si>
-  <si>
-    <t>36921243440ffbe10878a1237d3c739a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.9ca86a8300^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:25:59Z</t>
-  </si>
-  <si>
-    <t>d868ebdd07dd8224a00703e902c590df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.7f9c81768f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:26:21Z</t>
-  </si>
-  <si>
-    <t>0b72e69d99086255f4f5fb9e856cdd9d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.b55ecdf54d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:26:49Z</t>
-  </si>
-  <si>
-    <t>49019efe0c519f0317903167bc1b7f6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.76c6208c21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:27:13Z</t>
-  </si>
-  <si>
-    <t>141de4ccfb63d13e50d43a854e0e14ad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.0caf3cb05d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:27:35Z</t>
-  </si>
-  <si>
-    <t>a025ecf81e9dac1d7d332d6046f84150</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.2c345c7c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:28:02Z</t>
-  </si>
-  <si>
-    <t>5d449bd857901753de6d3526341a558c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.2db8b63096^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:30:05Z</t>
-  </si>
-  <si>
-    <t>248a606a4e4a3983ff71621197ed756d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.b16efd3e98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:30:32Z</t>
-  </si>
-  <si>
-    <t>2b54439ef345576793a7ca8069142588</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.20c147b143^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-29T16:30:57Z</t>
-  </si>
-  <si>
-    <t>4322e76ff34cfb82632dfd284527e803</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.53a283cb55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Cheiron Sistemi srl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1569,143 +1562,157 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2000,12 +2007,12 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="252.7109375" customWidth="1"/>
+    <col min="1" max="1" width="234.85546875" customWidth="1"/>
     <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2034,7 +2041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>107</v>
       </c>
@@ -2079,7 +2086,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3145,25 +3152,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W564"/>
+  <dimension ref="A1:W611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
@@ -3195,12 +3200,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="54"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3221,14 +3228,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="42"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3249,12 +3256,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3276,12 +3283,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3302,8 +3309,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3445,57 +3452,57 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="35" t="s">
+      <c r="F10" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="35" t="s">
+      <c r="R10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T10" s="34"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3506,57 +3513,57 @@
       <c r="B11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="35" t="s">
+      <c r="F11" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="35" t="s">
+      <c r="R11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3567,57 +3574,57 @@
       <c r="B12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+      <c r="F12" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="35" t="s">
+      <c r="R12" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3628,57 +3635,57 @@
       <c r="B13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="35" t="s">
+      <c r="F13" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="35" t="s">
+      <c r="R13" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T13" s="34"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3689,51 +3696,51 @@
       <c r="B14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P14" s="35" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="V14" s="37"/>
-      <c r="W14" s="35" t="s">
+      <c r="R14" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="T14" s="34"/>
+      <c r="U14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3744,51 +3751,51 @@
       <c r="B15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P15" s="35" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="P15" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="35" t="s">
+      <c r="R15" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="T15" s="34"/>
+      <c r="U15" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="36"/>
+      <c r="W15" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3799,57 +3806,57 @@
       <c r="B16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P16" s="35" t="s">
+      <c r="F16" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="35" t="s">
+      <c r="R16" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3860,57 +3867,57 @@
       <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P17" s="35" t="s">
+      <c r="F17" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="35" t="s">
+      <c r="Q17" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="35" t="s">
+      <c r="R17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3921,57 +3928,57 @@
       <c r="B18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P18" s="35" t="s">
+      <c r="F18" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="35" t="s">
+      <c r="R18" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3982,57 +3989,57 @@
       <c r="B19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P19" s="35" t="s">
+      <c r="F19" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="35" t="s">
+      <c r="R19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4043,57 +4050,57 @@
       <c r="B20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P20" s="35" t="s">
+      <c r="F20" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P20" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="35" t="s">
+      <c r="R20" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4104,57 +4111,57 @@
       <c r="B21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="35" t="s">
+      <c r="F21" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P21" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="35" t="s">
+      <c r="Q21" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="35" t="s">
+      <c r="R21" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4165,57 +4172,57 @@
       <c r="B22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P22" s="35" t="s">
+      <c r="F22" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="35" t="s">
+      <c r="Q22" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T22" s="35"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="35" t="s">
+      <c r="R22" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4226,57 +4233,57 @@
       <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P23" s="35" t="s">
+      <c r="F23" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="Q23" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T23" s="35"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="35" t="s">
+      <c r="R23" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4287,57 +4294,57 @@
       <c r="B24" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P24" s="35" t="s">
+      <c r="F24" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P24" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="35" t="s">
+      <c r="Q24" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S24" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T24" s="35"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="35" t="s">
+      <c r="R24" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4348,57 +4355,57 @@
       <c r="B25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P25" s="35" t="s">
+      <c r="F25" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="35" t="s">
+      <c r="Q25" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="35" t="s">
+      <c r="R25" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T25" s="34"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4409,57 +4416,57 @@
       <c r="B26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P26" s="35" t="s">
+      <c r="F26" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P26" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="35" t="s">
+      <c r="R26" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4470,57 +4477,57 @@
       <c r="B27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="35" t="s">
+      <c r="F27" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="35" t="s">
+      <c r="R27" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4531,57 +4538,57 @@
       <c r="B28" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P28" s="35" t="s">
+      <c r="F28" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="35" t="s">
+      <c r="Q28" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="35" t="s">
+      <c r="R28" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4592,57 +4599,57 @@
       <c r="B29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P29" s="35" t="s">
+      <c r="F29" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P29" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="35" t="s">
+      <c r="Q29" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="35" t="s">
+      <c r="R29" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4653,57 +4660,57 @@
       <c r="B30" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P30" s="35" t="s">
+      <c r="F30" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P30" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="35" t="s">
+      <c r="Q30" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T30" s="35"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="35" t="s">
+      <c r="R30" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4714,57 +4721,57 @@
       <c r="B31" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P31" s="35" t="s">
+      <c r="F31" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P31" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q31" s="35" t="s">
+      <c r="Q31" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S31" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T31" s="35"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="35" t="s">
+      <c r="R31" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4775,57 +4782,57 @@
       <c r="B32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P32" s="35" t="s">
+      <c r="F32" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P32" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="35" t="s">
+      <c r="Q32" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R32" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S32" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T32" s="35"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="35" t="s">
+      <c r="R32" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4836,57 +4843,57 @@
       <c r="B33" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P33" s="35" t="s">
+      <c r="F33" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P33" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="35" t="s">
+      <c r="Q33" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S33" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T33" s="35"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="35" t="s">
+      <c r="R33" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T33" s="34"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4897,57 +4904,57 @@
       <c r="B34" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="35" t="s">
+      <c r="F34" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="35" t="s">
+      <c r="I34" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P34" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="35" t="s">
+      <c r="Q34" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R34" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T34" s="35"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="35" t="s">
+      <c r="R34" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T34" s="34"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4958,57 +4965,57 @@
       <c r="B35" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P35" s="35" t="s">
+      <c r="F35" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P35" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="35" t="s">
+      <c r="Q35" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S35" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T35" s="35"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="35" t="s">
+      <c r="R35" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T35" s="34"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5019,57 +5026,57 @@
       <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P36" s="35" t="s">
+      <c r="F36" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P36" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="35" t="s">
+      <c r="Q36" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S36" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T36" s="35"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="35" t="s">
+      <c r="R36" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T36" s="34"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5080,57 +5087,57 @@
       <c r="B37" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P37" s="35" t="s">
+      <c r="F37" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P37" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q37" s="35" t="s">
+      <c r="Q37" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R37" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S37" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T37" s="35"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="35" t="s">
+      <c r="R37" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T37" s="34"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5141,57 +5148,57 @@
       <c r="B38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P38" s="35" t="s">
+      <c r="F38" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P38" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q38" s="35" t="s">
+      <c r="Q38" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S38" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T38" s="35"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="35" t="s">
+      <c r="R38" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T38" s="34"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5202,57 +5209,57 @@
       <c r="B39" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P39" s="35" t="s">
+      <c r="F39" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P39" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q39" s="35" t="s">
+      <c r="Q39" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S39" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T39" s="35"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="35" t="s">
+      <c r="R39" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T39" s="34"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5263,57 +5270,57 @@
       <c r="B40" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P40" s="35" t="s">
+      <c r="F40" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="35" t="s">
+      <c r="Q40" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R40" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T40" s="35"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="35" t="s">
+      <c r="R40" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T40" s="34"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5324,57 +5331,57 @@
       <c r="B41" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N41" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P41" s="35" t="s">
+      <c r="F41" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="J41" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="35" t="s">
+      <c r="Q41" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R41" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S41" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="35" t="s">
+      <c r="R41" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T41" s="34"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5385,43 +5392,43 @@
       <c r="B42" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="35" t="s">
+      <c r="F42" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5432,43 +5439,43 @@
       <c r="B43" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="35" t="s">
+      <c r="F43" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5479,43 +5486,43 @@
       <c r="B44" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="35" t="s">
+      <c r="F44" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="J44" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5526,43 +5533,43 @@
       <c r="B45" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="35" t="s">
+      <c r="F45" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5573,54 +5580,54 @@
       <c r="B46" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="35"/>
+      <c r="F46" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="J46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="34"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O46" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P46" s="35" t="s">
+      <c r="M46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P46" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="35" t="s">
+      <c r="Q46" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S46" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T46" s="35"/>
+      <c r="R46" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T46" s="34"/>
       <c r="U46" s="33"/>
       <c r="V46" s="33"/>
       <c r="W46" s="33" t="s">
@@ -5634,54 +5641,54 @@
       <c r="B47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" s="34" t="s">
+      <c r="F47" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="P47" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q47" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="R47" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O47" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P47" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q47" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="R47" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S47" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T47" s="35"/>
+      <c r="T47" s="34"/>
       <c r="U47" s="33"/>
       <c r="V47" s="33"/>
       <c r="W47" s="33" t="s">
@@ -5695,54 +5702,54 @@
       <c r="B48" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="34">
-        <v>45776</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="35"/>
+      <c r="F48" s="50">
+        <v>45784</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="34"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="N48" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P48" s="35" t="s">
+      <c r="M48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="P48" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q48" s="35" t="s">
+      <c r="Q48" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R48" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S48" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T48" s="35"/>
+      <c r="R48" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="T48" s="34"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="33" t="s">
@@ -7630,153 +7637,952 @@
       <c r="W142" s="9"/>
     </row>
     <row r="143" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W143" s="7"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="7"/>
+      <c r="T143" s="7"/>
+      <c r="U143" s="8"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="9"/>
     </row>
     <row r="144" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W144" s="7"/>
-    </row>
-    <row r="145" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W145" s="7"/>
-    </row>
-    <row r="146" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W146" s="7"/>
-    </row>
-    <row r="147" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W147" s="7"/>
-    </row>
-    <row r="148" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W148" s="7"/>
-    </row>
-    <row r="149" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W149" s="7"/>
-    </row>
-    <row r="150" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W150" s="7"/>
-    </row>
-    <row r="151" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W151" s="7"/>
-    </row>
-    <row r="152" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W152" s="7"/>
-    </row>
-    <row r="153" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W153" s="7"/>
-    </row>
-    <row r="154" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W154" s="7"/>
-    </row>
-    <row r="155" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W155" s="7"/>
-    </row>
-    <row r="156" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W156" s="7"/>
-    </row>
-    <row r="157" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W157" s="7"/>
-    </row>
-    <row r="158" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W158" s="7"/>
-    </row>
-    <row r="159" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W159" s="7"/>
-    </row>
-    <row r="160" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W160" s="7"/>
-    </row>
-    <row r="161" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W161" s="7"/>
-    </row>
-    <row r="162" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W162" s="7"/>
-    </row>
-    <row r="163" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W163" s="7"/>
-    </row>
-    <row r="164" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W164" s="7"/>
-    </row>
-    <row r="165" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W165" s="7"/>
-    </row>
-    <row r="166" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W166" s="7"/>
-    </row>
-    <row r="167" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W167" s="7"/>
-    </row>
-    <row r="168" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W168" s="7"/>
-    </row>
-    <row r="169" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W169" s="7"/>
-    </row>
-    <row r="170" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W170" s="7"/>
-    </row>
-    <row r="171" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W171" s="7"/>
-    </row>
-    <row r="172" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W172" s="7"/>
-    </row>
-    <row r="173" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W173" s="7"/>
-    </row>
-    <row r="174" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W174" s="7"/>
-    </row>
-    <row r="175" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W175" s="7"/>
-    </row>
-    <row r="176" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W176" s="7"/>
-    </row>
-    <row r="177" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W177" s="7"/>
-    </row>
-    <row r="178" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W178" s="7"/>
-    </row>
-    <row r="179" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W179" s="7"/>
-    </row>
-    <row r="180" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W180" s="7"/>
-    </row>
-    <row r="181" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W181" s="7"/>
-    </row>
-    <row r="182" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W182" s="7"/>
-    </row>
-    <row r="183" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W183" s="7"/>
-    </row>
-    <row r="184" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W184" s="7"/>
-    </row>
-    <row r="185" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W185" s="7"/>
-    </row>
-    <row r="186" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W186" s="7"/>
-    </row>
-    <row r="187" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W187" s="7"/>
-    </row>
-    <row r="188" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W188" s="7"/>
-    </row>
-    <row r="189" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W189" s="7"/>
-    </row>
-    <row r="190" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="7"/>
+      <c r="U144" s="8"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="9"/>
+    </row>
+    <row r="145" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="9"/>
+    </row>
+    <row r="146" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="9"/>
+    </row>
+    <row r="147" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="9"/>
+    </row>
+    <row r="148" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="7"/>
+      <c r="T148" s="7"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="9"/>
+    </row>
+    <row r="149" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
+      <c r="S149" s="7"/>
+      <c r="T149" s="7"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="9"/>
+    </row>
+    <row r="150" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="9"/>
+    </row>
+    <row r="151" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="7"/>
+      <c r="T151" s="7"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="9"/>
+    </row>
+    <row r="152" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="7"/>
+      <c r="T152" s="7"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="2"/>
+      <c r="W152" s="9"/>
+    </row>
+    <row r="153" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+      <c r="U153" s="8"/>
+      <c r="V153" s="2"/>
+      <c r="W153" s="9"/>
+    </row>
+    <row r="154" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
+      <c r="T154" s="7"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="2"/>
+      <c r="W154" s="9"/>
+    </row>
+    <row r="155" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="7"/>
+      <c r="T155" s="7"/>
+      <c r="U155" s="8"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="9"/>
+    </row>
+    <row r="156" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="7"/>
+      <c r="T156" s="7"/>
+      <c r="U156" s="8"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="9"/>
+    </row>
+    <row r="157" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="7"/>
+      <c r="T157" s="7"/>
+      <c r="U157" s="8"/>
+      <c r="V157" s="2"/>
+      <c r="W157" s="9"/>
+    </row>
+    <row r="158" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="9"/>
+    </row>
+    <row r="159" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="9"/>
+    </row>
+    <row r="160" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="8"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="9"/>
+    </row>
+    <row r="161" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="8"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="9"/>
+    </row>
+    <row r="162" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7"/>
+      <c r="T162" s="7"/>
+      <c r="U162" s="8"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="9"/>
+    </row>
+    <row r="163" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="7"/>
+      <c r="T163" s="7"/>
+      <c r="U163" s="8"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="9"/>
+    </row>
+    <row r="164" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7"/>
+      <c r="T164" s="7"/>
+      <c r="U164" s="8"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="9"/>
+    </row>
+    <row r="165" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+      <c r="U165" s="8"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="9"/>
+    </row>
+    <row r="166" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="7"/>
+      <c r="T166" s="7"/>
+      <c r="U166" s="8"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="9"/>
+    </row>
+    <row r="167" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="9"/>
+    </row>
+    <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="9"/>
+    </row>
+    <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="8"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="9"/>
+    </row>
+    <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="8"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="9"/>
+    </row>
+    <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7"/>
+      <c r="S171" s="7"/>
+      <c r="T171" s="7"/>
+      <c r="U171" s="8"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="9"/>
+    </row>
+    <row r="172" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+      <c r="U172" s="8"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="9"/>
+    </row>
+    <row r="173" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="7"/>
+      <c r="T173" s="7"/>
+      <c r="U173" s="8"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="9"/>
+    </row>
+    <row r="174" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="8"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="9"/>
+    </row>
+    <row r="175" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="7"/>
+      <c r="T175" s="7"/>
+      <c r="U175" s="8"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="9"/>
+    </row>
+    <row r="176" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="8"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="9"/>
+    </row>
+    <row r="177" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="8"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="9"/>
+    </row>
+    <row r="178" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="8"/>
+      <c r="V178" s="2"/>
+      <c r="W178" s="9"/>
+    </row>
+    <row r="179" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="8"/>
+      <c r="V179" s="2"/>
+      <c r="W179" s="9"/>
+    </row>
+    <row r="180" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="8"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="9"/>
+    </row>
+    <row r="181" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7"/>
+      <c r="T181" s="7"/>
+      <c r="U181" s="8"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="9"/>
+    </row>
+    <row r="182" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="8"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="9"/>
+    </row>
+    <row r="183" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7"/>
+      <c r="T183" s="7"/>
+      <c r="U183" s="8"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="9"/>
+    </row>
+    <row r="184" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="8"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="9"/>
+    </row>
+    <row r="185" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="8"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="9"/>
+    </row>
+    <row r="186" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="8"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="9"/>
+    </row>
+    <row r="187" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="7"/>
+      <c r="T187" s="7"/>
+      <c r="U187" s="8"/>
+      <c r="V187" s="2"/>
+      <c r="W187" s="9"/>
+    </row>
+    <row r="188" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7"/>
+      <c r="T188" s="7"/>
+      <c r="U188" s="8"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="9"/>
+    </row>
+    <row r="189" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+      <c r="U189" s="8"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="9"/>
+    </row>
+    <row r="190" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W190" s="7"/>
     </row>
-    <row r="191" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W191" s="7"/>
     </row>
-    <row r="192" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W192" s="7"/>
     </row>
     <row r="193" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8880,11 +9686,152 @@
     <row r="559" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W559" s="7"/>
     </row>
-    <row r="560" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W560" s="7"/>
+    </row>
+    <row r="561" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W561" s="7"/>
+    </row>
+    <row r="562" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W562" s="7"/>
+    </row>
+    <row r="563" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W563" s="7"/>
+    </row>
+    <row r="564" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W564" s="7"/>
+    </row>
+    <row r="565" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W565" s="7"/>
+    </row>
+    <row r="566" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W566" s="7"/>
+    </row>
+    <row r="567" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W567" s="7"/>
+    </row>
+    <row r="568" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W568" s="7"/>
+    </row>
+    <row r="569" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W569" s="7"/>
+    </row>
+    <row r="570" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W570" s="7"/>
+    </row>
+    <row r="571" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W571" s="7"/>
+    </row>
+    <row r="572" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W572" s="7"/>
+    </row>
+    <row r="573" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W573" s="7"/>
+    </row>
+    <row r="574" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W574" s="7"/>
+    </row>
+    <row r="575" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W575" s="7"/>
+    </row>
+    <row r="576" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W576" s="7"/>
+    </row>
+    <row r="577" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W577" s="7"/>
+    </row>
+    <row r="578" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W578" s="7"/>
+    </row>
+    <row r="579" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W579" s="7"/>
+    </row>
+    <row r="580" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W580" s="7"/>
+    </row>
+    <row r="581" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W581" s="7"/>
+    </row>
+    <row r="582" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W582" s="7"/>
+    </row>
+    <row r="583" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W583" s="7"/>
+    </row>
+    <row r="584" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W584" s="7"/>
+    </row>
+    <row r="585" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W585" s="7"/>
+    </row>
+    <row r="586" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W586" s="7"/>
+    </row>
+    <row r="587" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W587" s="7"/>
+    </row>
+    <row r="588" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W588" s="7"/>
+    </row>
+    <row r="589" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W589" s="7"/>
+    </row>
+    <row r="590" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W590" s="7"/>
+    </row>
+    <row r="591" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W591" s="7"/>
+    </row>
+    <row r="592" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W592" s="7"/>
+    </row>
+    <row r="593" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W593" s="7"/>
+    </row>
+    <row r="594" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W594" s="7"/>
+    </row>
+    <row r="595" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W595" s="7"/>
+    </row>
+    <row r="596" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W596" s="7"/>
+    </row>
+    <row r="597" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W597" s="7"/>
+    </row>
+    <row r="598" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W598" s="7"/>
+    </row>
+    <row r="599" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W599" s="7"/>
+    </row>
+    <row r="600" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W600" s="7"/>
+    </row>
+    <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W601" s="7"/>
+    </row>
+    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W602" s="7"/>
+    </row>
+    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W603" s="7"/>
+    </row>
+    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W604" s="7"/>
+    </row>
+    <row r="605" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W605" s="7"/>
+    </row>
+    <row r="606" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W606" s="7"/>
+    </row>
+    <row r="607" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A9:W48"/>
   <mergeCells count="7">
@@ -8896,10 +9843,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -8907,7 +9854,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N48 P10:R48 J10:J48</xm:sqref>
+          <xm:sqref>J10:J48 P10:R48 M10:N48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -11478,16 +12425,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="10155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,20 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="288">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -762,6 +776,9 @@
     <t>471, 472</t>
   </si>
   <si>
+    <t>Cheiron Sistemi srl</t>
+  </si>
+  <si>
     <t>subject_application_id: Art-It</t>
   </si>
   <si>
@@ -771,367 +788,360 @@
     <t>subject_application_version: 3.5.0</t>
   </si>
   <si>
-    <t>2025-05-07T09:29:02Z</t>
-  </si>
-  <si>
-    <t>d82fb8f592fab4b9426073c454bd32de</t>
+    <t>2025-05-09T09:16:34Z</t>
+  </si>
+  <si>
+    <t>e9fa13b7d2756d2d715aff32f4f40b06</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2025-05-07T08:57:53Z</t>
-  </si>
-  <si>
-    <t>11341640429822709b0c75334ecc85c3</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:30:57Z</t>
-  </si>
-  <si>
-    <t>02cf7e9d90ba88bfba3c158ad4151c47</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:00:09Z</t>
-  </si>
-  <si>
-    <t>46165aec2d1dbce2a044217e871ea4ce</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:32:16Z</t>
-  </si>
-  <si>
-    <t>dafbe4e73b5a6c20db6330084f85f327</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f82624eb44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:32:39Z</t>
-  </si>
-  <si>
-    <t>597082506e70c6f561d88a5237d4babc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.1529fbff5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:33:01Z</t>
-  </si>
-  <si>
-    <t>ab9191d7aadc8575e2b1fe35295408e0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.4287909963^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:33:25Z</t>
-  </si>
-  <si>
-    <t>3443b03e240f36dd0ce5d64121e7fe6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8666a150dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:33:47Z</t>
-  </si>
-  <si>
-    <t>774b924781f24a56efe7d01aa4b970c0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.4ea4d8563e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:35:24Z</t>
-  </si>
-  <si>
-    <t>8b46afc8aacf82f9207c4aa589e9aff8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.34b74df467^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:35:55Z</t>
-  </si>
-  <si>
-    <t>d4fc8b0c31967f65e4f611da99c1c643</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.589b3735a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:36:18Z</t>
-  </si>
-  <si>
-    <t>3c2c2c038b9c8cf7bf866ac65115732a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.d243e378a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:37:14Z</t>
-  </si>
-  <si>
-    <t>1c8adb05cb1729d28ce6b00f8b67213e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.26cfb4ba12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:37:47Z</t>
-  </si>
-  <si>
-    <t>041bf1b6301cc291aac4e5f9762de642</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.a8540c6eca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:00:27Z</t>
-  </si>
-  <si>
-    <t>9055e81143ee4c0ebf431af65f7f913f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.6d076d5515^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:00:52Z</t>
-  </si>
-  <si>
-    <t>8366129158ab2ba332b118802fc6d907</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.225c4caf03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:01:25Z</t>
-  </si>
-  <si>
-    <t>dbc65fa8fb09dfd2b1164321adf05002</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.b1b1fdffaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:02:18Z</t>
-  </si>
-  <si>
-    <t>94698d70ab1f05f170ecdd39c6cd9abc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d1edcce594^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:03:19Z</t>
-  </si>
-  <si>
-    <t>ed6583bbfc005dfe5579adadc7839f9a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.e123945ed0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:03:56Z</t>
-  </si>
-  <si>
-    <t>9ced0eacb4e455278c392ba0a4848cc4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.caaebcc34b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:04:24Z</t>
-  </si>
-  <si>
-    <t>feb300c505ed4576d1e794cd421da732</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1a9c7fad1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:04:48Z</t>
-  </si>
-  <si>
-    <t>8d993ca714846374cc6251be20c011fd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9c3ea0dcac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:05:17Z</t>
-  </si>
-  <si>
-    <t>4534f05bfbc96355dde5c96553b3b7ea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.239f3f7b13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:09:18Z</t>
-  </si>
-  <si>
-    <t>b0d869ab9ef802966adcea55af4f0d9f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.7115918d5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:17:13Z</t>
-  </si>
-  <si>
-    <t>798953430fc6e3a9a53cd5bac00d92e2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.8963da0096^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:18:19Z</t>
-  </si>
-  <si>
-    <t>54d728137202d95bd556e0db73acc2f4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.8eaba604ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:18:46Z</t>
-  </si>
-  <si>
-    <t>65fbd4a2291f8d7b407adceca151f875</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.3ebcf59490^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:19:11Z</t>
-  </si>
-  <si>
-    <t>a6b6e10d6439c02a0885f8fc1478575b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.547274ccd9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:19:56Z</t>
-  </si>
-  <si>
-    <t>86c12707844e05af32477340ba8fae27</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.748bea2023^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:20:51Z</t>
-  </si>
-  <si>
-    <t>f53f481b43ebd1b1b26d1e45978c2220</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.923a189ef8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:23:13Z</t>
-  </si>
-  <si>
-    <t>7ad94f80455778168d1ebdf708669bb0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9862df3d15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:24:00Z</t>
-  </si>
-  <si>
-    <t>967705025b50015c30ccdeca99ec6344</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.5a092e2749^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:38:13Z</t>
-  </si>
-  <si>
-    <t>3175f01c28e97951e756d0964876c9c3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f4af1be237^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:39:12Z</t>
-  </si>
-  <si>
-    <t>5a7e9c48adc8c35fd9506c2619d59aee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.e7a007b3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:24:48Z</t>
-  </si>
-  <si>
-    <t>13f072493923365a3635d1b495b04fbf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.276a03200f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:39:53Z</t>
-  </si>
-  <si>
-    <t>70bf1fc9879f0a096db7994ea60451ba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.5e55777135^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-07T09:25:19Z</t>
-  </si>
-  <si>
-    <t>feea7c1cdfb163578c4a0d67c6392bdc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1422568df4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T08:42:31Z</t>
+  </si>
+  <si>
+    <t>9f896d60f4b3b2bffbf76e8d8bfd398d</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:17:10Z</t>
+  </si>
+  <si>
+    <t>e67e9a559fa2b54d9143a7e51e1dfe4f</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:42:58Z</t>
+  </si>
+  <si>
+    <t>d0d009aed4a3c7cdea89834157429f89</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:17:33Z</t>
+  </si>
+  <si>
+    <t>549ae4b0186a6a0e48cee07afbffe46d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f2dec2dd66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:18:01Z</t>
+  </si>
+  <si>
+    <t>29860863ecbef7d0aaf084cd9fb8d9a8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.3168946fbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:18:27Z</t>
+  </si>
+  <si>
+    <t>78a114b2ed19aeaecbfbe2fb50bfa752</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.47c67ddc00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:18:53Z</t>
+  </si>
+  <si>
+    <t>003f38e797240ae51740456e9b4ce046</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.ef64f9723d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:19:19Z</t>
+  </si>
+  <si>
+    <t>53381bc2a75c8c5c26979cb37b865693</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.9a9fa4f83b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:19:41Z</t>
+  </si>
+  <si>
+    <t>540cc808c8aaad5dafcdb9400ca89301</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.3526ea3bfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:20:05Z</t>
+  </si>
+  <si>
+    <t>f7568936afa7c65009737a9c4c24c33c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8c11417e2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:20:27Z</t>
+  </si>
+  <si>
+    <t>c08f023a2488d48ba8592fdc5457e8df</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.93c909dbc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:23:21Z</t>
+  </si>
+  <si>
+    <t>57f89c4dc2f11cbc6db0e9d73785d276</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.d52c7c65ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:24:02Z</t>
+  </si>
+  <si>
+    <t>e4692f42ae26d78b3c78eda5f8445a93</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.fe174c43c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:43:40Z</t>
+  </si>
+  <si>
+    <t>a5bfe7febd3134312d2228888ea22a0e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.feafb5a3c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:44:05Z</t>
+  </si>
+  <si>
+    <t>95d12c72e51f1d4eadff28e484e5d709</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f9a9170c19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:44:40Z</t>
+  </si>
+  <si>
+    <t>7845900994ecbb672556343e0ffc1f00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.49dc609a57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:45:05Z</t>
+  </si>
+  <si>
+    <t>cf9f05ec98ad3efe8dcccb33accc5837</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f4fc330b35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:45:27Z</t>
+  </si>
+  <si>
+    <t>f7ea7cf0ee75c1469614a447129751d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.0e1c758eec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:45:53Z</t>
+  </si>
+  <si>
+    <t>afb68d1c24c7f60f4e62c0a99b603cb5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.b0ff7151f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:46:30Z</t>
+  </si>
+  <si>
+    <t>f01334433aac922d0989614db810ab36</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.262ca8fa5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:48:15Z</t>
+  </si>
+  <si>
+    <t>f20053a879b71ea77ede9b579e4cb3f0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.691dc900bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:48:50Z</t>
+  </si>
+  <si>
+    <t>81faa02cc71b075b89cdff483211e00e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9bc98a3d50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:49:28Z</t>
+  </si>
+  <si>
+    <t>9645797e91beb7fa2239352a5f6288c8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.49d2ed989d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:49:49Z</t>
+  </si>
+  <si>
+    <t>859bbd3c8699bcf148bb20c365c00213</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.beecf0b166^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:50:14Z</t>
+  </si>
+  <si>
+    <t>70ad467c98c51319773239011eb6a760</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f5f49dbcdb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:50:37Z</t>
+  </si>
+  <si>
+    <t>61db8b334339c6e95f0112e7c9e135c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.a9bc6abfed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:51:00Z</t>
+  </si>
+  <si>
+    <t>24593699bec0c26960653a1360707791</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.70b7fd2a1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:51:24Z</t>
+  </si>
+  <si>
+    <t>93c603c97cebc623793eb887bbecde0e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.455df1e238^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:51:51Z</t>
+  </si>
+  <si>
+    <t>d6188a92c07f531d0bb63fa1c5845c66</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.433b049af7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:52:35Z</t>
+  </si>
+  <si>
+    <t>f26f3073db712ef44a4f9a2db734881b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.6aab5d3d11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:53:17Z</t>
+  </si>
+  <si>
+    <t>cebf7628e08b341eedbce03664c29fdb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.530d2ecf03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:25:14Z</t>
+  </si>
+  <si>
+    <t>603d5c1aa535c9219a9160322f996b0d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.bb764d5292^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:26:26Z</t>
+  </si>
+  <si>
+    <t>4c8a568189e500b8ae1a48f17cfeeb80</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8321e71b5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:54:26Z</t>
+  </si>
+  <si>
+    <t>f85f6add2c63669733d9e55ff27a8b8b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d5aed8099f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T09:27:54Z</t>
+  </si>
+  <si>
+    <t>2740924960229999f47e8e03c47f7468</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.7d3ddaeec9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:54:53Z</t>
+  </si>
+  <si>
+    <t>253e257e1616b619a14a0f928977284b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.c1a5b358a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore di connessione. Contattare l'assistenza.</t>
   </si>
   <si>
+    <t>Timeout di connesione. Riprovare piu' tardi</t>
+  </si>
+  <si>
+    <t>Viene mostrato l'errore generato dalla validazione.</t>
+  </si>
+  <si>
     <t>Revisione dell'installazione cliente per correggere l'errore di configurazione.</t>
   </si>
   <si>
-    <t>Timeout di connesione. Riprovare piu' tardi</t>
-  </si>
-  <si>
     <t>Viene chiesto di ritentare</t>
   </si>
   <si>
-    <t>Viene mostrato l'errore generato dalla validazione.</t>
-  </si>
-  <si>
     <t>Modifica dei dati non corretti da parte del medico e re-invio in validazione contestualmente.</t>
-  </si>
-  <si>
-    <t>Cheiron Sistemi srl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1562,157 +1572,143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2006,13 +2002,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="234.85546875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
     <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2026,22 +2022,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>107</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3164,10 +3160,10 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
@@ -3204,10 +3200,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="54"/>
+      <c r="C2" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="51"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3233,7 +3229,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="6"/>
@@ -3259,7 +3255,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="4"/>
@@ -3286,7 +3282,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" s="42"/>
       <c r="F5" s="6"/>
@@ -3461,19 +3457,19 @@
       <c r="E10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="51" t="s">
+      <c r="F10" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="I10" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="34"/>
@@ -3481,23 +3477,23 @@
       <c r="M10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="56" t="s">
+      <c r="N10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R10" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="56" t="s">
-        <v>281</v>
+      <c r="R10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
@@ -3522,43 +3518,43 @@
       <c r="E11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="56" t="s">
+      <c r="M11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>281</v>
+      <c r="R11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
@@ -3583,43 +3579,43 @@
       <c r="E12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="51" t="s">
+      <c r="F12" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="55" t="s">
+      <c r="H12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="56" t="s">
+      <c r="M12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>281</v>
+      <c r="R12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="35"/>
@@ -3644,43 +3640,43 @@
       <c r="E13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="51" t="s">
+      <c r="F13" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="55" t="s">
+      <c r="H13" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="P13" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="56" t="s">
+      <c r="M13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="56" t="s">
-        <v>281</v>
+      <c r="R13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -3705,35 +3701,43 @@
       <c r="E14" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="55" t="s">
+      <c r="F14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="56" t="s">
+      <c r="M14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="56" t="s">
-        <v>283</v>
+      <c r="R14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>286</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35" t="s">
@@ -3760,35 +3764,43 @@
       <c r="E15" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="55" t="s">
+      <c r="F15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="P15" s="56" t="s">
+      <c r="M15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="P15" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" s="56" t="s">
-        <v>283</v>
+      <c r="R15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>286</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35" t="s">
@@ -3815,43 +3827,43 @@
       <c r="E16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="I16" s="51" t="s">
+      <c r="F16" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="H16" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="56" t="s">
+      <c r="M16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P16" s="56" t="s">
+      <c r="P16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="56" t="s">
+      <c r="Q16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="56" t="s">
-        <v>285</v>
+      <c r="R16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
@@ -3876,43 +3888,43 @@
       <c r="E17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="I17" s="51" t="s">
+      <c r="F17" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="H17" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="56" t="s">
+      <c r="M17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" s="56" t="s">
-        <v>285</v>
+      <c r="R17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
@@ -3937,43 +3949,43 @@
       <c r="E18" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18" s="51" t="s">
+      <c r="F18" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="H18" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="56" t="s">
+      <c r="M18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>285</v>
+      <c r="R18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
@@ -3998,43 +4010,43 @@
       <c r="E19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="51" t="s">
+      <c r="F19" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="H19" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="56" t="s">
+      <c r="M19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P19" s="56" t="s">
+      <c r="P19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="56" t="s">
-        <v>285</v>
+      <c r="R19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -4059,43 +4071,43 @@
       <c r="E20" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="51" t="s">
+      <c r="F20" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="H20" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="56" t="s">
+      <c r="M20" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P20" s="56" t="s">
+      <c r="P20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" s="56" t="s">
+      <c r="Q20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="56" t="s">
-        <v>285</v>
+      <c r="R20" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
@@ -4120,43 +4132,43 @@
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="51" t="s">
+      <c r="F21" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="H21" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="56" t="s">
+      <c r="M21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q21" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>285</v>
+      <c r="R21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
@@ -4181,43 +4193,43 @@
       <c r="E22" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="51" t="s">
+      <c r="F22" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="55" t="s">
+      <c r="H22" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="56" t="s">
+      <c r="M22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P22" s="56" t="s">
+      <c r="P22" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S22" s="56" t="s">
-        <v>285</v>
+      <c r="R22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -4242,43 +4254,43 @@
       <c r="E23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="51" t="s">
+      <c r="F23" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G23" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="H23" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="56" t="s">
+      <c r="M23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P23" s="56" t="s">
+      <c r="P23" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" s="56" t="s">
+      <c r="Q23" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" s="56" t="s">
-        <v>285</v>
+      <c r="R23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -4303,43 +4315,43 @@
       <c r="E24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="51" t="s">
+      <c r="F24" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="H24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="56" t="s">
+      <c r="M24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P24" s="56" t="s">
+      <c r="P24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="56" t="s">
+      <c r="Q24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S24" s="56" t="s">
-        <v>285</v>
+      <c r="R24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
@@ -4364,43 +4376,43 @@
       <c r="E25" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="51" t="s">
+      <c r="F25" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G25" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="H25" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="56" t="s">
+      <c r="M25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P25" s="56" t="s">
+      <c r="P25" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="56" t="s">
+      <c r="Q25" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R25" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>285</v>
+      <c r="R25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T25" s="34"/>
       <c r="U25" s="35"/>
@@ -4425,43 +4437,43 @@
       <c r="E26" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="I26" s="51" t="s">
+      <c r="F26" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="H26" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="56" t="s">
+      <c r="M26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P26" s="56" t="s">
+      <c r="P26" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" s="56" t="s">
+      <c r="Q26" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="56" t="s">
-        <v>285</v>
+      <c r="R26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T26" s="34"/>
       <c r="U26" s="35"/>
@@ -4486,43 +4498,43 @@
       <c r="E27" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="I27" s="51" t="s">
+      <c r="F27" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="H27" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="56" t="s">
+      <c r="M27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P27" s="56" t="s">
+      <c r="P27" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="56" t="s">
+      <c r="Q27" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R27" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" s="56" t="s">
-        <v>285</v>
+      <c r="R27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -4547,43 +4559,43 @@
       <c r="E28" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="I28" s="51" t="s">
+      <c r="F28" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G28" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="H28" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="56" t="s">
+      <c r="M28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="56" t="s">
-        <v>285</v>
+      <c r="R28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T28" s="34"/>
       <c r="U28" s="35"/>
@@ -4608,43 +4620,43 @@
       <c r="E29" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="I29" s="51" t="s">
+      <c r="F29" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="H29" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="56" t="s">
+      <c r="M29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P29" s="56" t="s">
+      <c r="P29" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="56" t="s">
+      <c r="Q29" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R29" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" s="56" t="s">
-        <v>285</v>
+      <c r="R29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35"/>
@@ -4669,43 +4681,43 @@
       <c r="E30" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" s="51" t="s">
+      <c r="F30" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G30" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="H30" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="56" t="s">
+      <c r="M30" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P30" s="56" t="s">
+      <c r="P30" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="56" t="s">
+      <c r="Q30" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R30" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="56" t="s">
-        <v>285</v>
+      <c r="R30" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
@@ -4730,43 +4742,43 @@
       <c r="E31" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I31" s="51" t="s">
+      <c r="F31" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="H31" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" s="56" t="s">
+      <c r="M31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P31" s="56" t="s">
+      <c r="P31" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q31" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R31" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S31" s="56" t="s">
-        <v>285</v>
+      <c r="R31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
@@ -4791,43 +4803,43 @@
       <c r="E32" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="51" t="s">
+      <c r="F32" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="H32" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="56" t="s">
+      <c r="M32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P32" s="56" t="s">
+      <c r="P32" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="56" t="s">
+      <c r="Q32" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R32" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S32" s="56" t="s">
-        <v>285</v>
+      <c r="R32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T32" s="34"/>
       <c r="U32" s="35"/>
@@ -4852,43 +4864,43 @@
       <c r="E33" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" s="51" t="s">
+      <c r="F33" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="H33" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
-      <c r="M33" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="56" t="s">
+      <c r="M33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P33" s="56" t="s">
+      <c r="P33" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R33" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S33" s="56" t="s">
-        <v>285</v>
+      <c r="R33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T33" s="34"/>
       <c r="U33" s="35"/>
@@ -4913,43 +4925,43 @@
       <c r="E34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="I34" s="51" t="s">
+      <c r="F34" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G34" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="J34" s="55" t="s">
+      <c r="H34" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
-      <c r="M34" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="56" t="s">
+      <c r="M34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P34" s="56" t="s">
+      <c r="P34" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R34" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="56" t="s">
-        <v>285</v>
+      <c r="R34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T34" s="34"/>
       <c r="U34" s="35"/>
@@ -4974,43 +4986,43 @@
       <c r="E35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="I35" s="51" t="s">
+      <c r="F35" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G35" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="J35" s="55" t="s">
+      <c r="H35" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="56" t="s">
+      <c r="M35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P35" s="56" t="s">
+      <c r="P35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R35" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S35" s="56" t="s">
-        <v>285</v>
+      <c r="R35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
@@ -5035,43 +5047,43 @@
       <c r="E36" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" s="51" t="s">
+      <c r="F36" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G36" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="55" t="s">
+      <c r="H36" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
-      <c r="M36" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="56" t="s">
+      <c r="M36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P36" s="56" t="s">
+      <c r="P36" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="56" t="s">
+      <c r="Q36" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S36" s="56" t="s">
-        <v>285</v>
+      <c r="R36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T36" s="34"/>
       <c r="U36" s="35"/>
@@ -5096,43 +5108,43 @@
       <c r="E37" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="I37" s="51" t="s">
+      <c r="F37" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="J37" s="55" t="s">
+      <c r="H37" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="56" t="s">
+      <c r="M37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P37" s="56" t="s">
+      <c r="P37" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q37" s="56" t="s">
+      <c r="Q37" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R37" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S37" s="56" t="s">
-        <v>285</v>
+      <c r="R37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T37" s="34"/>
       <c r="U37" s="35"/>
@@ -5157,43 +5169,43 @@
       <c r="E38" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38" s="51" t="s">
+      <c r="F38" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G38" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="J38" s="55" t="s">
+      <c r="H38" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="56" t="s">
+      <c r="M38" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P38" s="56" t="s">
+      <c r="P38" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q38" s="56" t="s">
+      <c r="Q38" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R38" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S38" s="56" t="s">
-        <v>285</v>
+      <c r="R38" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T38" s="34"/>
       <c r="U38" s="35"/>
@@ -5218,43 +5230,43 @@
       <c r="E39" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" s="51" t="s">
+      <c r="F39" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G39" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="J39" s="55" t="s">
+      <c r="H39" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="56" t="s">
+      <c r="M39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P39" s="56" t="s">
+      <c r="P39" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q39" s="56" t="s">
+      <c r="Q39" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R39" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S39" s="56" t="s">
-        <v>285</v>
+      <c r="R39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
@@ -5279,43 +5291,43 @@
       <c r="E40" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="I40" s="51" t="s">
+      <c r="F40" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G40" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="H40" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="56" t="s">
+      <c r="M40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P40" s="56" t="s">
+      <c r="P40" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="56" t="s">
+      <c r="Q40" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R40" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="56" t="s">
-        <v>285</v>
+      <c r="R40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T40" s="34"/>
       <c r="U40" s="35"/>
@@ -5340,43 +5352,43 @@
       <c r="E41" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="H41" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="I41" s="51" t="s">
+      <c r="F41" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G41" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="J41" s="55" t="s">
+      <c r="H41" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N41" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" s="56" t="s">
+      <c r="M41" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P41" s="56" t="s">
+      <c r="P41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="56" t="s">
+      <c r="Q41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R41" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S41" s="56" t="s">
-        <v>285</v>
+      <c r="R41" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
@@ -5401,30 +5413,30 @@
       <c r="E42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="I42" s="51" t="s">
+      <c r="F42" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G42" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="J42" s="55" t="s">
+      <c r="H42" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
       <c r="V42" s="36"/>
@@ -5448,30 +5460,30 @@
       <c r="E43" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="I43" s="51" t="s">
+      <c r="F43" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G43" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="J43" s="55" t="s">
+      <c r="H43" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
@@ -5495,30 +5507,30 @@
       <c r="E44" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="51" t="s">
+      <c r="F44" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="J44" s="55" t="s">
+      <c r="H44" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="34"/>
       <c r="U44" s="35"/>
       <c r="V44" s="36"/>
@@ -5542,30 +5554,30 @@
       <c r="E45" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="51" t="s">
+      <c r="F45" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="J45" s="55" t="s">
+      <c r="H45" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
       <c r="T45" s="34"/>
       <c r="U45" s="35"/>
       <c r="V45" s="36"/>
@@ -5589,43 +5601,43 @@
       <c r="E46" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I46" s="51" t="s">
+      <c r="F46" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="J46" s="55" t="s">
+      <c r="H46" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K46" s="34"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N46" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O46" s="56" t="s">
+      <c r="M46" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P46" s="56" t="s">
+      <c r="P46" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="56" t="s">
+      <c r="Q46" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R46" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S46" s="56" t="s">
-        <v>285</v>
+      <c r="R46" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T46" s="34"/>
       <c r="U46" s="33"/>
@@ -5650,43 +5662,43 @@
       <c r="E47" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" s="51" t="s">
+      <c r="F47" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="J47" s="55" t="s">
+      <c r="H47" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K47" s="34"/>
       <c r="L47" s="33"/>
-      <c r="M47" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O47" s="56" t="s">
+      <c r="M47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P47" s="56" t="s">
+      <c r="P47" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q47" s="56" t="s">
+      <c r="Q47" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R47" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S47" s="56" t="s">
-        <v>285</v>
+      <c r="R47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T47" s="34"/>
       <c r="U47" s="33"/>
@@ -5711,43 +5723,43 @@
       <c r="E48" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="50">
-        <v>45784</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="I48" s="51" t="s">
+      <c r="F48" s="52">
+        <v>45786</v>
+      </c>
+      <c r="G48" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="J48" s="55" t="s">
+      <c r="H48" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="J48" s="34" t="s">
         <v>51</v>
       </c>
       <c r="K48" s="34"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N48" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="56" t="s">
+      <c r="M48" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P48" s="56" t="s">
+      <c r="P48" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q48" s="56" t="s">
+      <c r="Q48" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="R48" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="S48" s="56" t="s">
-        <v>285</v>
+      <c r="R48" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="T48" s="34"/>
       <c r="U48" s="33"/>
@@ -9843,18 +9855,18 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J48 P10:R48 M10:N48</xm:sqref>
+          <xm:sqref>J10:J48 M10:N48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -9867,6 +9879,12 @@
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>K10:K48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P10:R48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12117,12 +12135,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12384,21 +12405,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12423,18 +12450,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CHEIRONXX/Cheiron_Sistemi_srl/Art-It/3.5.0/report-checklist.xlsx
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -788,333 +789,12 @@
     <t>subject_application_version: 3.5.0</t>
   </si>
   <si>
-    <t>2025-05-09T09:16:34Z</t>
-  </si>
-  <si>
-    <t>e9fa13b7d2756d2d715aff32f4f40b06</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2025-05-09T08:42:31Z</t>
-  </si>
-  <si>
-    <t>9f896d60f4b3b2bffbf76e8d8bfd398d</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:17:10Z</t>
-  </si>
-  <si>
-    <t>e67e9a559fa2b54d9143a7e51e1dfe4f</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:42:58Z</t>
-  </si>
-  <si>
-    <t>d0d009aed4a3c7cdea89834157429f89</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>2025-05-09T09:17:33Z</t>
-  </si>
-  <si>
-    <t>549ae4b0186a6a0e48cee07afbffe46d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.f2dec2dd66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:18:01Z</t>
-  </si>
-  <si>
-    <t>29860863ecbef7d0aaf084cd9fb8d9a8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.3168946fbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:18:27Z</t>
-  </si>
-  <si>
-    <t>78a114b2ed19aeaecbfbe2fb50bfa752</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.47c67ddc00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:18:53Z</t>
-  </si>
-  <si>
-    <t>003f38e797240ae51740456e9b4ce046</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.ef64f9723d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:19:19Z</t>
-  </si>
-  <si>
-    <t>53381bc2a75c8c5c26979cb37b865693</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.9a9fa4f83b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:19:41Z</t>
-  </si>
-  <si>
-    <t>540cc808c8aaad5dafcdb9400ca89301</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.3526ea3bfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:20:05Z</t>
-  </si>
-  <si>
-    <t>f7568936afa7c65009737a9c4c24c33c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8c11417e2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:20:27Z</t>
-  </si>
-  <si>
-    <t>c08f023a2488d48ba8592fdc5457e8df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.93c909dbc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:23:21Z</t>
-  </si>
-  <si>
-    <t>57f89c4dc2f11cbc6db0e9d73785d276</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.d52c7c65ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:24:02Z</t>
-  </si>
-  <si>
-    <t>e4692f42ae26d78b3c78eda5f8445a93</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.fe174c43c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:43:40Z</t>
-  </si>
-  <si>
-    <t>a5bfe7febd3134312d2228888ea22a0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.feafb5a3c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:44:05Z</t>
-  </si>
-  <si>
-    <t>95d12c72e51f1d4eadff28e484e5d709</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f9a9170c19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:44:40Z</t>
-  </si>
-  <si>
-    <t>7845900994ecbb672556343e0ffc1f00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.49dc609a57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:45:05Z</t>
-  </si>
-  <si>
-    <t>cf9f05ec98ad3efe8dcccb33accc5837</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f4fc330b35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:45:27Z</t>
-  </si>
-  <si>
-    <t>f7ea7cf0ee75c1469614a447129751d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.0e1c758eec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:45:53Z</t>
-  </si>
-  <si>
-    <t>afb68d1c24c7f60f4e62c0a99b603cb5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.b0ff7151f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:46:30Z</t>
-  </si>
-  <si>
-    <t>f01334433aac922d0989614db810ab36</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.262ca8fa5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:48:15Z</t>
-  </si>
-  <si>
-    <t>f20053a879b71ea77ede9b579e4cb3f0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.691dc900bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:48:50Z</t>
-  </si>
-  <si>
-    <t>81faa02cc71b075b89cdff483211e00e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9bc98a3d50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:49:28Z</t>
-  </si>
-  <si>
-    <t>9645797e91beb7fa2239352a5f6288c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.49d2ed989d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:49:49Z</t>
-  </si>
-  <si>
-    <t>859bbd3c8699bcf148bb20c365c00213</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.beecf0b166^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:50:14Z</t>
-  </si>
-  <si>
-    <t>70ad467c98c51319773239011eb6a760</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.f5f49dbcdb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:50:37Z</t>
-  </si>
-  <si>
-    <t>61db8b334339c6e95f0112e7c9e135c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.a9bc6abfed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:51:00Z</t>
-  </si>
-  <si>
-    <t>24593699bec0c26960653a1360707791</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.70b7fd2a1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:51:24Z</t>
-  </si>
-  <si>
-    <t>93c603c97cebc623793eb887bbecde0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.455df1e238^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:51:51Z</t>
-  </si>
-  <si>
-    <t>d6188a92c07f531d0bb63fa1c5845c66</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.433b049af7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:52:35Z</t>
-  </si>
-  <si>
-    <t>f26f3073db712ef44a4f9a2db734881b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.6aab5d3d11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:53:17Z</t>
-  </si>
-  <si>
-    <t>cebf7628e08b341eedbce03664c29fdb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.530d2ecf03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:25:14Z</t>
-  </si>
-  <si>
-    <t>603d5c1aa535c9219a9160322f996b0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.bb764d5292^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:26:26Z</t>
-  </si>
-  <si>
-    <t>4c8a568189e500b8ae1a48f17cfeeb80</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.8321e71b5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:54:26Z</t>
-  </si>
-  <si>
-    <t>f85f6add2c63669733d9e55ff27a8b8b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.d5aed8099f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T09:27:54Z</t>
-  </si>
-  <si>
-    <t>2740924960229999f47e8e03c47f7468</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.7d3ddaeec9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:54:53Z</t>
-  </si>
-  <si>
-    <t>253e257e1616b619a14a0f928977284b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.c1a5b358a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore di connessione. Contattare l'assistenza.</t>
   </si>
   <si>
@@ -1131,6 +811,327 @@
   </si>
   <si>
     <t>Modifica dei dati non corretti da parte del medico e re-invio in validazione contestualmente.</t>
+  </si>
+  <si>
+    <t>2025-05-14T13:58:27Z</t>
+  </si>
+  <si>
+    <t>eb17e294a3be9bb3af83940c75032a98</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:12:20Z</t>
+  </si>
+  <si>
+    <t>8ef94aa8d447d61e02fd4cd9796d1b74</t>
+  </si>
+  <si>
+    <t>2025-05-14T13:59:01Z</t>
+  </si>
+  <si>
+    <t>1c1b899a6c24e32fafc65aa474ad0a57</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:12:41Z</t>
+  </si>
+  <si>
+    <t>a396dbae16eb2fb12cee58635d2cf7cb</t>
+  </si>
+  <si>
+    <t>2025-05-14T13:59:24Z</t>
+  </si>
+  <si>
+    <t>9c06fd2c3bdf502f82f551a48fade985</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.7433690d5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T13:59:59Z</t>
+  </si>
+  <si>
+    <t>a695441c6ce92327b21d7f2cb630f815</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.875b6e7600^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:00:32Z</t>
+  </si>
+  <si>
+    <t>904301a9e4f220eb01cda409b70f89ad</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.6e18d4d8e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:02:23Z</t>
+  </si>
+  <si>
+    <t>d6f822fb9a4d188feb157d13e9ff3acc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.39be3fa249^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:02:53Z</t>
+  </si>
+  <si>
+    <t>f57272957d7918435ccc193976138239</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.1a0dc1d863^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:03:25Z</t>
+  </si>
+  <si>
+    <t>584f4583f54caebc3a9426e1cbfe1804</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.ab2889a5cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:03:49Z</t>
+  </si>
+  <si>
+    <t>4185c6ecf05823a499bf59c6bf1e3f58</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.441a761d81^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:04:31Z</t>
+  </si>
+  <si>
+    <t>96baf3ff3fb09d277bdf1ef400ee6f17</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.cb23d1c127^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:05:02Z</t>
+  </si>
+  <si>
+    <t>1344ae3eacf3aee164d989deb8036026</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.0f462ba4a6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:05:36Z</t>
+  </si>
+  <si>
+    <t>56b00741aec7e47b3ae498c15f6cb782</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.a84a317303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:13:05Z</t>
+  </si>
+  <si>
+    <t>01c72093642a3b33adb88f8f2e4d3cf3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.96fcb75857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:13:27Z</t>
+  </si>
+  <si>
+    <t>f9f6e622341d18094eec8bd2c6a08527</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.67df413921^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:14:02Z</t>
+  </si>
+  <si>
+    <t>d841e9bd1eacd6d19a8b2a4d01b7f9fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.0c5c088ddf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:14:41Z</t>
+  </si>
+  <si>
+    <t>987d3059ec41ec7cc2d25bfd0e2037f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.c960e5ccef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:15:03Z</t>
+  </si>
+  <si>
+    <t>4ae86d9d2cfa1b07fcc56ef23a4f097f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.2a60178403^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:15:53Z</t>
+  </si>
+  <si>
+    <t>b70357a2050931c5a2a4d6f56c1ac580</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.7972c0db5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:16:15Z</t>
+  </si>
+  <si>
+    <t>ef8717f5260256147a659575b446c5e2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.92e6840c0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:16:47Z</t>
+  </si>
+  <si>
+    <t>ba217c6acd6a2031b2d70bef80050953</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.11893418f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:17:09Z</t>
+  </si>
+  <si>
+    <t>20fcf1c78481d3be66ab4d0534ec9dc7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.ed17b44153^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:17:32Z</t>
+  </si>
+  <si>
+    <t>d623ce281e253861e6f5bbcbe23ad651</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.176d45e3e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:44:39Z</t>
+  </si>
+  <si>
+    <t>cd7b8b80d9d2a95b37619345aa6c499b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.7c5c2c99a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:48:42Z</t>
+  </si>
+  <si>
+    <t>704e07cd3280adbb949ec651329d2bf0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.70de67516b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:49:03Z</t>
+  </si>
+  <si>
+    <t>365d507c90e96ec8883ff2fa0ea7bd5b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1d6c5d38ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:49:28Z</t>
+  </si>
+  <si>
+    <t>c023102ab044bf76ea8e54443de7528c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.343d2c001f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:55:08Z</t>
+  </si>
+  <si>
+    <t>d3fcc6c801078d40c1389403f476991b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.4e3bd3aaab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:56:06Z</t>
+  </si>
+  <si>
+    <t>b2918102c33ea19f268abaa576e51e47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.9184053fbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:57:20Z</t>
+  </si>
+  <si>
+    <t>461f785f9e14f33d671d44ac1b806888</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.67e6c3c9de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:58:38Z</t>
+  </si>
+  <si>
+    <t>bb4dcdf9ca66f5b96e9b517994c33fdf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.c09b11cc0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:06:57Z</t>
+  </si>
+  <si>
+    <t>8d430c8ff70f3fc56f8124265cb40ab4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.26de51be68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:07:57Z</t>
+  </si>
+  <si>
+    <t>75c0a13ae62d6f727dbdddbb7b96433e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.5e7a84d165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:56:32Z</t>
+  </si>
+  <si>
+    <t>a3a06f6c6fe616968a28d73ec53aa61b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.1875092d0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T14:06:05Z</t>
+  </si>
+  <si>
+    <t>bb1c43b5e4256208d43c86b0f45da0dc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.b003f716158df29d8ec40a923d02fe1e8d2fc1143de7f67ccc8a7216c19cb1a9.dc643b0ee7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T11:56:50Z</t>
+  </si>
+  <si>
+    <t>75b5264d169d250dc455e03b287c7997</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.eab4c46bd2879e55349e2709f1d1390498095a6b4cffc64561be118f51779b4e.4dae041b02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1678,6 +1679,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,6 +1690,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1696,15 +1706,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3154,7 +3155,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3196,14 +3197,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3224,14 +3225,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3252,12 +3253,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3279,12 +3280,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3305,8 +3306,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3457,17 +3458,17 @@
       <c r="E10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="52">
-        <v>45786</v>
+      <c r="F10" s="39">
+        <v>45791</v>
       </c>
       <c r="G10" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>175</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>51</v>
@@ -3481,7 +3482,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>51</v>
@@ -3493,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
@@ -3518,17 +3519,17 @@
       <c r="E11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="52">
-        <v>45786</v>
+      <c r="F11" s="39">
+        <v>45791</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>51</v>
@@ -3542,7 +3543,7 @@
         <v>51</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>51</v>
@@ -3554,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
@@ -3579,17 +3580,17 @@
       <c r="E12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="52">
-        <v>45786</v>
+      <c r="F12" s="39">
+        <v>45791</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>51</v>
@@ -3603,7 +3604,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>51</v>
@@ -3615,7 +3616,7 @@
         <v>51</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="35"/>
@@ -3640,17 +3641,17 @@
       <c r="E13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="52">
-        <v>45786</v>
+      <c r="F13" s="39">
+        <v>45791</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>51</v>
@@ -3664,7 +3665,7 @@
         <v>51</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>51</v>
@@ -3676,7 +3677,7 @@
         <v>51</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -3702,16 +3703,16 @@
         <v>102</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>51</v>
@@ -3725,7 +3726,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>90</v>
@@ -3737,7 +3738,7 @@
         <v>51</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35" t="s">
@@ -3765,16 +3766,16 @@
         <v>102</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>51</v>
@@ -3788,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P15" s="34" t="s">
         <v>90</v>
@@ -3800,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35" t="s">
@@ -3827,17 +3828,17 @@
       <c r="E16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="52">
-        <v>45786</v>
+      <c r="F16" s="39">
+        <v>45791</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>51</v>
@@ -3851,7 +3852,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P16" s="34" t="s">
         <v>90</v>
@@ -3863,7 +3864,7 @@
         <v>51</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
@@ -3888,17 +3889,17 @@
       <c r="E17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="52">
-        <v>45786</v>
+      <c r="F17" s="39">
+        <v>45791</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>51</v>
@@ -3912,7 +3913,7 @@
         <v>51</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>90</v>
@@ -3924,7 +3925,7 @@
         <v>51</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
@@ -3949,17 +3950,17 @@
       <c r="E18" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="52">
-        <v>45786</v>
+      <c r="F18" s="39">
+        <v>45791</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>51</v>
@@ -3973,7 +3974,7 @@
         <v>51</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P18" s="34" t="s">
         <v>90</v>
@@ -3985,7 +3986,7 @@
         <v>51</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
@@ -4010,17 +4011,17 @@
       <c r="E19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="52">
-        <v>45786</v>
+      <c r="F19" s="39">
+        <v>45791</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>51</v>
@@ -4034,7 +4035,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P19" s="34" t="s">
         <v>90</v>
@@ -4046,7 +4047,7 @@
         <v>51</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -4071,17 +4072,17 @@
       <c r="E20" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="52">
-        <v>45786</v>
+      <c r="F20" s="39">
+        <v>45791</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>51</v>
@@ -4095,7 +4096,7 @@
         <v>51</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P20" s="34" t="s">
         <v>90</v>
@@ -4107,7 +4108,7 @@
         <v>51</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
@@ -4132,17 +4133,17 @@
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="52">
-        <v>45786</v>
+      <c r="F21" s="39">
+        <v>45791</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>51</v>
@@ -4156,7 +4157,7 @@
         <v>51</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>90</v>
@@ -4168,7 +4169,7 @@
         <v>51</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
@@ -4193,17 +4194,17 @@
       <c r="E22" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="52">
-        <v>45786</v>
+      <c r="F22" s="39">
+        <v>45791</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>51</v>
@@ -4217,7 +4218,7 @@
         <v>51</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>90</v>
@@ -4229,7 +4230,7 @@
         <v>51</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -4254,17 +4255,17 @@
       <c r="E23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="52">
-        <v>45786</v>
+      <c r="F23" s="39">
+        <v>45791</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>51</v>
@@ -4278,7 +4279,7 @@
         <v>51</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P23" s="34" t="s">
         <v>90</v>
@@ -4290,7 +4291,7 @@
         <v>51</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -4315,17 +4316,17 @@
       <c r="E24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="52">
-        <v>45786</v>
+      <c r="F24" s="39">
+        <v>45791</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J24" s="34" t="s">
         <v>51</v>
@@ -4339,7 +4340,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P24" s="34" t="s">
         <v>90</v>
@@ -4351,7 +4352,7 @@
         <v>51</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
@@ -4376,17 +4377,17 @@
       <c r="E25" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="52">
-        <v>45786</v>
+      <c r="F25" s="39">
+        <v>45791</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>51</v>
@@ -4400,7 +4401,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P25" s="34" t="s">
         <v>90</v>
@@ -4412,7 +4413,7 @@
         <v>51</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T25" s="34"/>
       <c r="U25" s="35"/>
@@ -4437,17 +4438,17 @@
       <c r="E26" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="52">
-        <v>45786</v>
+      <c r="F26" s="39">
+        <v>45791</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>51</v>
@@ -4461,7 +4462,7 @@
         <v>51</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P26" s="34" t="s">
         <v>90</v>
@@ -4473,7 +4474,7 @@
         <v>51</v>
       </c>
       <c r="S26" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T26" s="34"/>
       <c r="U26" s="35"/>
@@ -4498,17 +4499,17 @@
       <c r="E27" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="52">
-        <v>45786</v>
+      <c r="F27" s="39">
+        <v>45791</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>51</v>
@@ -4522,7 +4523,7 @@
         <v>51</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>90</v>
@@ -4534,7 +4535,7 @@
         <v>51</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -4559,17 +4560,17 @@
       <c r="E28" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="52">
-        <v>45786</v>
+      <c r="F28" s="39">
+        <v>45791</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J28" s="34" t="s">
         <v>51</v>
@@ -4583,7 +4584,7 @@
         <v>51</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P28" s="34" t="s">
         <v>90</v>
@@ -4595,7 +4596,7 @@
         <v>51</v>
       </c>
       <c r="S28" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T28" s="34"/>
       <c r="U28" s="35"/>
@@ -4620,17 +4621,17 @@
       <c r="E29" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="52">
-        <v>45786</v>
+      <c r="F29" s="39">
+        <v>45791</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>51</v>
@@ -4644,7 +4645,7 @@
         <v>51</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P29" s="34" t="s">
         <v>90</v>
@@ -4656,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35"/>
@@ -4681,17 +4682,17 @@
       <c r="E30" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="52">
-        <v>45786</v>
+      <c r="F30" s="39">
+        <v>45791</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>51</v>
@@ -4705,7 +4706,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P30" s="34" t="s">
         <v>90</v>
@@ -4717,7 +4718,7 @@
         <v>51</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
@@ -4742,17 +4743,17 @@
       <c r="E31" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="52">
-        <v>45786</v>
+      <c r="F31" s="39">
+        <v>45791</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>51</v>
@@ -4766,7 +4767,7 @@
         <v>51</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P31" s="34" t="s">
         <v>90</v>
@@ -4778,7 +4779,7 @@
         <v>51</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
@@ -4803,17 +4804,17 @@
       <c r="E32" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="52">
-        <v>45786</v>
+      <c r="F32" s="39">
+        <v>45791</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>51</v>
@@ -4827,7 +4828,7 @@
         <v>51</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P32" s="34" t="s">
         <v>90</v>
@@ -4839,7 +4840,7 @@
         <v>51</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T32" s="34"/>
       <c r="U32" s="35"/>
@@ -4864,17 +4865,17 @@
       <c r="E33" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="52">
-        <v>45786</v>
+      <c r="F33" s="39">
+        <v>45791</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>51</v>
@@ -4888,7 +4889,7 @@
         <v>51</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P33" s="34" t="s">
         <v>90</v>
@@ -4900,7 +4901,7 @@
         <v>51</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T33" s="34"/>
       <c r="U33" s="35"/>
@@ -4925,17 +4926,17 @@
       <c r="E34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="52">
-        <v>45786</v>
+      <c r="F34" s="39">
+        <v>45791</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J34" s="34" t="s">
         <v>51</v>
@@ -4949,7 +4950,7 @@
         <v>51</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P34" s="34" t="s">
         <v>90</v>
@@ -4961,7 +4962,7 @@
         <v>51</v>
       </c>
       <c r="S34" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T34" s="34"/>
       <c r="U34" s="35"/>
@@ -4986,17 +4987,17 @@
       <c r="E35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="52">
-        <v>45786</v>
+      <c r="F35" s="39">
+        <v>45791</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>51</v>
@@ -5010,7 +5011,7 @@
         <v>51</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P35" s="34" t="s">
         <v>90</v>
@@ -5022,7 +5023,7 @@
         <v>51</v>
       </c>
       <c r="S35" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
@@ -5047,17 +5048,17 @@
       <c r="E36" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="52">
-        <v>45786</v>
+      <c r="F36" s="39">
+        <v>45791</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J36" s="34" t="s">
         <v>51</v>
@@ -5071,7 +5072,7 @@
         <v>51</v>
       </c>
       <c r="O36" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P36" s="34" t="s">
         <v>90</v>
@@ -5083,7 +5084,7 @@
         <v>51</v>
       </c>
       <c r="S36" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T36" s="34"/>
       <c r="U36" s="35"/>
@@ -5108,17 +5109,17 @@
       <c r="E37" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="52">
-        <v>45786</v>
+      <c r="F37" s="39">
+        <v>45791</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>51</v>
@@ -5132,7 +5133,7 @@
         <v>51</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P37" s="34" t="s">
         <v>90</v>
@@ -5144,7 +5145,7 @@
         <v>51</v>
       </c>
       <c r="S37" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T37" s="34"/>
       <c r="U37" s="35"/>
@@ -5169,17 +5170,17 @@
       <c r="E38" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="52">
-        <v>45786</v>
+      <c r="F38" s="39">
+        <v>45791</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>51</v>
@@ -5193,7 +5194,7 @@
         <v>51</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P38" s="34" t="s">
         <v>90</v>
@@ -5205,7 +5206,7 @@
         <v>51</v>
       </c>
       <c r="S38" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T38" s="34"/>
       <c r="U38" s="35"/>
@@ -5230,17 +5231,17 @@
       <c r="E39" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="52">
-        <v>45786</v>
+      <c r="F39" s="39">
+        <v>45791</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>51</v>
@@ -5254,7 +5255,7 @@
         <v>51</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P39" s="34" t="s">
         <v>90</v>
@@ -5266,7 +5267,7 @@
         <v>51</v>
       </c>
       <c r="S39" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
@@ -5291,17 +5292,17 @@
       <c r="E40" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="52">
-        <v>45786</v>
+      <c r="F40" s="39">
+        <v>45791</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J40" s="34" t="s">
         <v>51</v>
@@ -5315,7 +5316,7 @@
         <v>51</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P40" s="34" t="s">
         <v>90</v>
@@ -5327,7 +5328,7 @@
         <v>51</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T40" s="34"/>
       <c r="U40" s="35"/>
@@ -5352,17 +5353,17 @@
       <c r="E41" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="52">
-        <v>45786</v>
+      <c r="F41" s="39">
+        <v>45791</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>51</v>
@@ -5376,7 +5377,7 @@
         <v>51</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P41" s="34" t="s">
         <v>90</v>
@@ -5388,7 +5389,7 @@
         <v>51</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
@@ -5413,17 +5414,17 @@
       <c r="E42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="52">
-        <v>45786</v>
+      <c r="F42" s="39">
+        <v>45791</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>51</v>
@@ -5460,17 +5461,17 @@
       <c r="E43" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="52">
-        <v>45786</v>
+      <c r="F43" s="39">
+        <v>45791</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>51</v>
@@ -5507,17 +5508,17 @@
       <c r="E44" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="52">
-        <v>45786</v>
+      <c r="F44" s="39">
+        <v>45791</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>51</v>
@@ -5554,17 +5555,17 @@
       <c r="E45" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="52">
-        <v>45786</v>
+      <c r="F45" s="39">
+        <v>45791</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>51</v>
@@ -5601,17 +5602,17 @@
       <c r="E46" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="52">
-        <v>45786</v>
+      <c r="F46" s="39">
+        <v>45791</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J46" s="34" t="s">
         <v>51</v>
@@ -5625,7 +5626,7 @@
         <v>51</v>
       </c>
       <c r="O46" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P46" s="34" t="s">
         <v>90</v>
@@ -5637,7 +5638,7 @@
         <v>51</v>
       </c>
       <c r="S46" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T46" s="34"/>
       <c r="U46" s="33"/>
@@ -5662,17 +5663,17 @@
       <c r="E47" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="52">
-        <v>45786</v>
+      <c r="F47" s="39">
+        <v>45791</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>51</v>
@@ -5686,7 +5687,7 @@
         <v>51</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P47" s="34" t="s">
         <v>90</v>
@@ -5698,7 +5699,7 @@
         <v>51</v>
       </c>
       <c r="S47" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T47" s="34"/>
       <c r="U47" s="33"/>
@@ -5723,17 +5724,17 @@
       <c r="E48" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="52">
-        <v>45786</v>
+      <c r="F48" s="39">
+        <v>45791</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>51</v>
@@ -5747,7 +5748,7 @@
         <v>51</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>90</v>
@@ -5759,7 +5760,7 @@
         <v>51</v>
       </c>
       <c r="S48" s="34" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="T48" s="34"/>
       <c r="U48" s="33"/>
@@ -9859,36 +9860,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>J10:J48 M10:N48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T10:T48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>K10:K48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet1!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P10:R48</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12135,18 +12106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12404,6 +12363,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12414,23 +12385,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12449,6 +12403,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
